--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_18.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_18.xlsx
@@ -1178,10 +1178,10 @@
         <v>1427602155.6800008</v>
       </c>
       <c r="D12" s="1">
-        <v>1398800851</v>
+        <v>1398800851.3300049</v>
       </c>
       <c r="E12" s="1">
-        <v>1361974149.3</v>
+        <v>1361974149</v>
       </c>
       <c r="F12" s="1">
         <v>1305498328.7699957</v>
@@ -1214,10 +1214,10 @@
         <v>340926355.51000023</v>
       </c>
       <c r="D13" s="1">
-        <v>338965688.89999998</v>
+        <v>338965688.90999979</v>
       </c>
       <c r="E13" s="1">
-        <v>332114255.61000007</v>
+        <v>332114255.60000002</v>
       </c>
       <c r="F13" s="1">
         <v>325268233.58999997</v>
@@ -1250,10 +1250,10 @@
         <v>985666.54999992996</v>
       </c>
       <c r="D14" s="1">
-        <v>45752811.060000002</v>
+        <v>-45752811.059999987</v>
       </c>
       <c r="E14" s="1">
-        <v>537985.22000000253</v>
+        <v>637985.22</v>
       </c>
       <c r="F14" s="1">
         <v>44875817.619999997</v>
@@ -1322,7 +1322,7 @@
         <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
-        <v>50601311.960000001</v>
+        <v>-50601311.959999993</v>
       </c>
       <c r="E16" s="1">
         <v>-60473972.810000002</v>
@@ -1395,11 +1395,12 @@
         <v>1515501799.8700008</v>
       </c>
       <c r="D18" s="1">
-        <v>1447283759</v>
+        <f>SUM(D12:D17)</f>
+        <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E12:E17)</f>
-        <v>1447134855.7700002</v>
+        <v>1447234855.46</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1436,10 +1437,10 @@
         <v>-392700000.00000024</v>
       </c>
       <c r="D19" s="1">
-        <v>383100000</v>
+        <v>-383099999.99999988</v>
       </c>
       <c r="E19" s="1">
-        <v>-384700000.00000012</v>
+        <v>-384700000</v>
       </c>
       <c r="F19" s="1">
         <v>-412700000</v>
@@ -1509,11 +1510,12 @@
         <v>1124090364.1500006</v>
       </c>
       <c r="D21" s="33">
-        <v>1096925175</v>
+        <f>SUM(D18:D20)</f>
+        <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
         <f>SUM(E18:E20)</f>
-        <v>1062434855.7700001</v>
+        <v>1062534855.46</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
@@ -1550,7 +1552,7 @@
         <v>-33376095</v>
       </c>
       <c r="D22" s="32">
-        <v>32201025</v>
+        <v>-32201025</v>
       </c>
       <c r="E22" s="32">
         <v>-20015625</v>
@@ -1588,11 +1590,11 @@
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
-        <v>1129126200</v>
+        <v>1064724149.6300049</v>
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>1042419230.7700001</v>
+        <v>1042519230.46</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1636,11 +1638,11 @@
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
-        <v>1.1179557980772141</v>
+        <v>1.0541908745672561</v>
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>1.0233708163259172</v>
+        <v>10.234482547431853</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1675,10 +1677,10 @@
         <v>1003368420.8613656</v>
       </c>
       <c r="D26" s="1">
-        <v>1009991810</v>
+        <v>1009991810.1331247</v>
       </c>
       <c r="E26" s="1">
-        <v>1018613403.9980445</v>
+        <v>101863404</v>
       </c>
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
@@ -1727,15 +1729,15 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>2.8428411946701312E-2</v>
+        <v>-3.0230131741731451E-2</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>-8.4605296483076339E-2</v>
+        <v>8.7083771016639595</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-3.0784812660727658E-2</v>
+        <v>-0.90308581475750738</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0327346743681818</v>
+        <v>2.8622040358873777</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
